--- a/natmiOut/YoungD0/LR-pairs_lrc2p/F8-Ldlr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/F8-Ldlr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.44705674907809</v>
+        <v>1.883886666666666</v>
       </c>
       <c r="H2">
-        <v>0.44705674907809</v>
+        <v>5.65166</v>
       </c>
       <c r="I2">
-        <v>0.4326863670396214</v>
+        <v>0.7298568945019562</v>
       </c>
       <c r="J2">
-        <v>0.4326863670396214</v>
+        <v>0.7298568945019563</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.42112094685021</v>
+        <v>1.425703666666666</v>
       </c>
       <c r="N2">
-        <v>1.42112094685021</v>
+        <v>4.277111</v>
       </c>
       <c r="O2">
-        <v>0.04872285742775753</v>
+        <v>0.04715501820393346</v>
       </c>
       <c r="P2">
-        <v>0.04872285742775753</v>
+        <v>0.04715501820393346</v>
       </c>
       <c r="Q2">
-        <v>0.635321710545632</v>
+        <v>2.685864128251111</v>
       </c>
       <c r="R2">
-        <v>0.635321710545632</v>
+        <v>24.17277715426</v>
       </c>
       <c r="S2">
-        <v>0.02108171617220584</v>
+        <v>0.03441641514650609</v>
       </c>
       <c r="T2">
-        <v>0.02108171617220584</v>
+        <v>0.0344164151465061</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.44705674907809</v>
+        <v>1.883886666666666</v>
       </c>
       <c r="H3">
-        <v>0.44705674907809</v>
+        <v>5.65166</v>
       </c>
       <c r="I3">
-        <v>0.4326863670396214</v>
+        <v>0.7298568945019562</v>
       </c>
       <c r="J3">
-        <v>0.4326863670396214</v>
+        <v>0.7298568945019563</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.3543666947144</v>
+        <v>20.61433933333333</v>
       </c>
       <c r="N3">
-        <v>20.3543666947144</v>
+        <v>61.843018</v>
       </c>
       <c r="O3">
-        <v>0.6978455343276256</v>
+        <v>0.6818173855147049</v>
       </c>
       <c r="P3">
-        <v>0.6978455343276256</v>
+        <v>0.6818173855147048</v>
       </c>
       <c r="Q3">
-        <v>9.099557004082367</v>
+        <v>38.83507901220889</v>
       </c>
       <c r="R3">
-        <v>9.099557004082367</v>
+        <v>349.51571110988</v>
       </c>
       <c r="S3">
-        <v>0.3019482490030437</v>
+        <v>0.4976291196092056</v>
       </c>
       <c r="T3">
-        <v>0.3019482490030437</v>
+        <v>0.4976291196092056</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.44705674907809</v>
+        <v>1.883886666666666</v>
       </c>
       <c r="H4">
-        <v>0.44705674907809</v>
+        <v>5.65166</v>
       </c>
       <c r="I4">
-        <v>0.4326863670396214</v>
+        <v>0.7298568945019562</v>
       </c>
       <c r="J4">
-        <v>0.4326863670396214</v>
+        <v>0.7298568945019563</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.39195084369537</v>
+        <v>8.194356666666666</v>
       </c>
       <c r="N4">
-        <v>7.39195084369537</v>
+        <v>24.58307</v>
       </c>
       <c r="O4">
-        <v>0.2534316082446169</v>
+        <v>0.2710275962813615</v>
       </c>
       <c r="P4">
-        <v>0.2534316082446169</v>
+        <v>0.2710275962813615</v>
       </c>
       <c r="Q4">
-        <v>3.304621513527497</v>
+        <v>15.43723926624444</v>
       </c>
       <c r="R4">
-        <v>3.304621513527497</v>
+        <v>138.9351533962</v>
       </c>
       <c r="S4">
-        <v>0.1096564018643719</v>
+        <v>0.1978113597462445</v>
       </c>
       <c r="T4">
-        <v>0.1096564018643719</v>
+        <v>0.1978113597462445</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.353113764714056</v>
+        <v>0.353459</v>
       </c>
       <c r="H5">
-        <v>0.353113764714056</v>
+        <v>1.060377</v>
       </c>
       <c r="I5">
-        <v>0.3417631258691058</v>
+        <v>0.1369373713601492</v>
       </c>
       <c r="J5">
-        <v>0.3417631258691058</v>
+        <v>0.1369373713601492</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.42112094685021</v>
+        <v>1.425703666666666</v>
       </c>
       <c r="N5">
-        <v>1.42112094685021</v>
+        <v>4.277111</v>
       </c>
       <c r="O5">
-        <v>0.04872285742775753</v>
+        <v>0.04715501820393346</v>
       </c>
       <c r="P5">
-        <v>0.04872285742775753</v>
+        <v>0.04715501820393346</v>
       </c>
       <c r="Q5">
-        <v>0.5018173676562815</v>
+        <v>0.5039277923163333</v>
       </c>
       <c r="R5">
-        <v>0.5018173676562815</v>
+        <v>4.535350130847</v>
       </c>
       <c r="S5">
-        <v>0.01665167605578519</v>
+        <v>0.006457284239286633</v>
       </c>
       <c r="T5">
-        <v>0.01665167605578519</v>
+        <v>0.006457284239286635</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.353113764714056</v>
+        <v>0.353459</v>
       </c>
       <c r="H6">
-        <v>0.353113764714056</v>
+        <v>1.060377</v>
       </c>
       <c r="I6">
-        <v>0.3417631258691058</v>
+        <v>0.1369373713601492</v>
       </c>
       <c r="J6">
-        <v>0.3417631258691058</v>
+        <v>0.1369373713601492</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.3543666947144</v>
+        <v>20.61433933333333</v>
       </c>
       <c r="N6">
-        <v>20.3543666947144</v>
+        <v>61.843018</v>
       </c>
       <c r="O6">
-        <v>0.6978455343276256</v>
+        <v>0.6818173855147049</v>
       </c>
       <c r="P6">
-        <v>0.6978455343276256</v>
+        <v>0.6818173855147048</v>
       </c>
       <c r="Q6">
-        <v>7.187407051940998</v>
+        <v>7.286323766420667</v>
       </c>
       <c r="R6">
-        <v>7.187407051940998</v>
+        <v>65.57691389778601</v>
       </c>
       <c r="S6">
-        <v>0.2384978711856057</v>
+        <v>0.09336628052003318</v>
       </c>
       <c r="T6">
-        <v>0.2384978711856057</v>
+        <v>0.09336628052003318</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.353113764714056</v>
+        <v>0.353459</v>
       </c>
       <c r="H7">
-        <v>0.353113764714056</v>
+        <v>1.060377</v>
       </c>
       <c r="I7">
-        <v>0.3417631258691058</v>
+        <v>0.1369373713601492</v>
       </c>
       <c r="J7">
-        <v>0.3417631258691058</v>
+        <v>0.1369373713601492</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.39195084369537</v>
+        <v>8.194356666666666</v>
       </c>
       <c r="N7">
-        <v>7.39195084369537</v>
+        <v>24.58307</v>
       </c>
       <c r="O7">
-        <v>0.2534316082446169</v>
+        <v>0.2710275962813615</v>
       </c>
       <c r="P7">
-        <v>0.2534316082446169</v>
+        <v>0.2710275962813615</v>
       </c>
       <c r="Q7">
-        <v>2.610199590998514</v>
+        <v>2.896369113043333</v>
       </c>
       <c r="R7">
-        <v>2.610199590998514</v>
+        <v>26.06732201739</v>
       </c>
       <c r="S7">
-        <v>0.08661357862771492</v>
+        <v>0.0371138066008294</v>
       </c>
       <c r="T7">
-        <v>0.08661357862771492</v>
+        <v>0.03711380660082941</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.233041491792381</v>
+        <v>0.343827</v>
       </c>
       <c r="H8">
-        <v>0.233041491792381</v>
+        <v>1.031481</v>
       </c>
       <c r="I8">
-        <v>0.2255505070912728</v>
+        <v>0.1332057341378944</v>
       </c>
       <c r="J8">
-        <v>0.2255505070912728</v>
+        <v>0.1332057341378944</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.42112094685021</v>
+        <v>1.425703666666666</v>
       </c>
       <c r="N8">
-        <v>1.42112094685021</v>
+        <v>4.277111</v>
       </c>
       <c r="O8">
-        <v>0.04872285742775753</v>
+        <v>0.04715501820393346</v>
       </c>
       <c r="P8">
-        <v>0.04872285742775753</v>
+        <v>0.04715501820393346</v>
       </c>
       <c r="Q8">
-        <v>0.3311801454713739</v>
+        <v>0.490195414599</v>
       </c>
       <c r="R8">
-        <v>0.3311801454713739</v>
+        <v>4.411758731391</v>
       </c>
       <c r="S8">
-        <v>0.0109894651997665</v>
+        <v>0.006281318818140733</v>
       </c>
       <c r="T8">
-        <v>0.0109894651997665</v>
+        <v>0.006281318818140733</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.233041491792381</v>
+        <v>0.343827</v>
       </c>
       <c r="H9">
-        <v>0.233041491792381</v>
+        <v>1.031481</v>
       </c>
       <c r="I9">
-        <v>0.2255505070912728</v>
+        <v>0.1332057341378944</v>
       </c>
       <c r="J9">
-        <v>0.2255505070912728</v>
+        <v>0.1332057341378944</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.3543666947144</v>
+        <v>20.61433933333333</v>
       </c>
       <c r="N9">
-        <v>20.3543666947144</v>
+        <v>61.843018</v>
       </c>
       <c r="O9">
-        <v>0.6978455343276256</v>
+        <v>0.6818173855147049</v>
       </c>
       <c r="P9">
-        <v>0.6978455343276256</v>
+        <v>0.6818173855147048</v>
       </c>
       <c r="Q9">
-        <v>4.743411979025399</v>
+        <v>7.087766449962001</v>
       </c>
       <c r="R9">
-        <v>4.743411979025399</v>
+        <v>63.78989804965801</v>
       </c>
       <c r="S9">
-        <v>0.1573994141389762</v>
+        <v>0.09082198538546607</v>
       </c>
       <c r="T9">
-        <v>0.1573994141389762</v>
+        <v>0.09082198538546606</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.233041491792381</v>
+        <v>0.343827</v>
       </c>
       <c r="H10">
-        <v>0.233041491792381</v>
+        <v>1.031481</v>
       </c>
       <c r="I10">
-        <v>0.2255505070912728</v>
+        <v>0.1332057341378944</v>
       </c>
       <c r="J10">
-        <v>0.2255505070912728</v>
+        <v>0.1332057341378944</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.39195084369537</v>
+        <v>8.194356666666666</v>
       </c>
       <c r="N10">
-        <v>7.39195084369537</v>
+        <v>24.58307</v>
       </c>
       <c r="O10">
-        <v>0.2534316082446169</v>
+        <v>0.2710275962813615</v>
       </c>
       <c r="P10">
-        <v>0.2534316082446169</v>
+        <v>0.2710275962813615</v>
       </c>
       <c r="Q10">
-        <v>1.722631251870719</v>
+        <v>2.81744106963</v>
       </c>
       <c r="R10">
-        <v>1.722631251870719</v>
+        <v>25.35696962667</v>
       </c>
       <c r="S10">
-        <v>0.05716162775253013</v>
+        <v>0.03610242993428763</v>
       </c>
       <c r="T10">
-        <v>0.05716162775253013</v>
+        <v>0.03610242993428763</v>
       </c>
     </row>
   </sheetData>
